--- a/excel/hmd_Continuous(2).xlsx
+++ b/excel/hmd_Continuous(2).xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F9CE28-3DED-4799-BCEE-A771D0C8E664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAF786E-E9E8-42E6-AC49-AE98C9667794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="3105" windowWidth="18285" windowHeight="12375" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9330" yWindow="2205" windowWidth="18285" windowHeight="12375" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非均布_拉伸_(5-40)" sheetId="1" r:id="rId1"/>
     <sheet name="非均布_压缩_(5-40)" sheetId="2" r:id="rId2"/>
     <sheet name="Tri6_非均布_拉伸_(5-40)" sheetId="3" r:id="rId3"/>
     <sheet name="Tri6_非均布_压缩_(5-40)" sheetId="4" r:id="rId4"/>
+    <sheet name="stabilizatiaon_bar_LSG" sheetId="5" r:id="rId5"/>
+    <sheet name="Tri6_LSG_非均布_拉伸(4-64)" sheetId="6" r:id="rId6"/>
+    <sheet name="Tri6_LSG_非均布_压缩(4-64)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -347,39 +350,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-0.09691001300805639</v>
+        <v>-9.6910013008056392E-2</v>
       </c>
       <c r="C2">
         <v>-1.2717776718344895</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-0.3979400086720376</v>
       </c>
       <c r="C3">
-        <v>0.5145448718898947</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.51454487188989473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-0.6989700043360187</v>
+        <v>-0.69897000433601875</v>
       </c>
       <c r="C4">
         <v>-0.44669228406855804</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="C5">
         <v>-1.4402548478138233</v>
@@ -394,42 +397,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A05D4C-A587-4126-9CF1-6F1721D769E5}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-0.09691001300805639</v>
+        <v>-9.6910013008056392E-2</v>
       </c>
       <c r="C2">
         <v>-0.22341946296279602</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-0.3979400086720376</v>
       </c>
       <c r="C3">
-        <v>-0.5173177899863809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-0.51731778998638089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-0.6989700043360187</v>
+        <v>-0.69897000433601875</v>
       </c>
       <c r="C4">
         <v>-1.2742575683073902</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="C5">
-        <v>-2.337001587515253</v>
+        <v>-2.3370015875152532</v>
       </c>
     </row>
   </sheetData>
@@ -440,21 +443,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F8BCE4-3DC8-40CA-BBAD-E42794B9EBBF}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-0.09691001300805639</v>
+        <v>-9.6910013008056392E-2</v>
       </c>
       <c r="C2">
-        <v>-0.9722591311104714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.97225913111047135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-0.3979400086720376</v>
       </c>
@@ -462,20 +465,20 @@
         <v>-2.2580456711646635</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-0.6989700043360187</v>
+        <v>-0.69897000433601875</v>
       </c>
       <c r="C4">
-        <v>-2.385407750388697</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-2.3854077503886968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="C5">
-        <v>-2.82063671566179</v>
+        <v>-2.8206367156617902</v>
       </c>
     </row>
   </sheetData>
@@ -486,21 +489,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D09930D-52E3-42BD-8292-DC9873109650}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-0.09691001300805639</v>
+        <v>-9.6910013008056392E-2</v>
       </c>
       <c r="C2">
-        <v>-0.6609628611386557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.66096286113865566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-0.3979400086720376</v>
       </c>
@@ -508,20 +511,166 @@
         <v>-2.3270470461386945</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-0.6989700043360187</v>
+        <v>-0.69897000433601875</v>
       </c>
       <c r="C4">
         <v>-2.6706184411714387</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="C5">
         <v>-2.6685189641720903</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E918A0-EECE-4332-BCF0-2038DF5C9693}">
+  <dimension ref="A2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-0.81015006628645647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="C3">
+        <v>-1.4425512814841539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="C4">
+        <v>-0.74599388063006722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C5">
+        <v>-1.703476569661369</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04C23BB-46AD-4615-AFDD-733180FACDA4}">
+  <dimension ref="A2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-0.57410804405320082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="C3">
+        <v>-0.43057167262799606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="C4">
+        <v>-1.4916962746453879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C5">
+        <v>-1.0356640608977068</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6B459B-A3CC-4C35-9294-D6268779CDAF}">
+  <dimension ref="A2:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-1.0390984110574499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="C3">
+        <v>-1.6475581388057823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="C4">
+        <v>-1.8894639858643836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-0.90308998699194354</v>
+      </c>
+      <c r="C5">
+        <v>-2.3732840519388101</v>
       </c>
     </row>
   </sheetData>

--- a/excel/hmd_Continuous(2).xlsx
+++ b/excel/hmd_Continuous(2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamilton\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAF786E-E9E8-42E6-AC49-AE98C9667794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B952491-5C13-4B38-AF71-19B139A16D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="2205" windowWidth="18285" windowHeight="12375" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非均布_拉伸_(5-40)" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" dyDescent="0.2">
       <c r="A2">
         <v>-9.6910013008056392E-2</v>
       </c>
@@ -364,7 +364,7 @@
         <v>-1.2717776718344895</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" dyDescent="0.2">
       <c r="A3">
         <v>-0.3979400086720376</v>
       </c>
@@ -372,7 +372,7 @@
         <v>0.51454487188989473</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" dyDescent="0.2">
       <c r="A4">
         <v>-0.69897000433601875</v>
       </c>
@@ -380,7 +380,7 @@
         <v>-0.44669228406855804</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" dyDescent="0.2">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -403,7 +403,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" dyDescent="0.2">
       <c r="A2">
         <v>-9.6910013008056392E-2</v>
       </c>
@@ -411,7 +411,7 @@
         <v>-0.22341946296279602</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" dyDescent="0.2">
       <c r="A3">
         <v>-0.3979400086720376</v>
       </c>
@@ -419,7 +419,7 @@
         <v>-0.51731778998638089</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" dyDescent="0.2">
       <c r="A4">
         <v>-0.69897000433601875</v>
       </c>
@@ -427,7 +427,7 @@
         <v>-1.2742575683073902</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" dyDescent="0.2">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -449,7 +449,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" dyDescent="0.2">
       <c r="A2">
         <v>-9.6910013008056392E-2</v>
       </c>
@@ -457,7 +457,7 @@
         <v>-0.97225913111047135</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" dyDescent="0.2">
       <c r="A3">
         <v>-0.3979400086720376</v>
       </c>
@@ -465,7 +465,7 @@
         <v>-2.2580456711646635</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" dyDescent="0.2">
       <c r="A4">
         <v>-0.69897000433601875</v>
       </c>
@@ -473,7 +473,7 @@
         <v>-2.3854077503886968</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" dyDescent="0.2">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -495,7 +495,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" dyDescent="0.2">
       <c r="A2">
         <v>-9.6910013008056392E-2</v>
       </c>
@@ -503,7 +503,7 @@
         <v>-0.66096286113865566</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" dyDescent="0.2">
       <c r="A3">
         <v>-0.3979400086720376</v>
       </c>
@@ -511,7 +511,7 @@
         <v>-2.3270470461386945</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" dyDescent="0.2">
       <c r="A4">
         <v>-0.69897000433601875</v>
       </c>
@@ -519,7 +519,7 @@
         <v>-2.6706184411714387</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" dyDescent="0.2">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -535,44 +535,44 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E918A0-EECE-4332-BCF0-2038DF5C9693}">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C2">
-        <v>-0.81015006628645647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-1.4189602907129262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>-0.3010299956639812</v>
       </c>
       <c r="C3">
-        <v>-1.4425512814841539</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-2.5985759648820417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>-0.6020599913279624</v>
       </c>
       <c r="C4">
-        <v>-0.74599388063006722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-3.2239377720474236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.90308998699194354</v>
+        <v>-0.9030899869919435</v>
       </c>
       <c r="C5">
-        <v>-1.703476569661369</v>
+        <v>-2.8573773379310765</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +592,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -600,7 +600,7 @@
         <v>-0.57410804405320082</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" dyDescent="0.2">
       <c r="A3">
         <v>-0.3010299956639812</v>
       </c>
@@ -608,7 +608,7 @@
         <v>-0.43057167262799606</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" dyDescent="0.2">
       <c r="A4">
         <v>-0.6020599913279624</v>
       </c>
@@ -616,7 +616,7 @@
         <v>-1.4916962746453879</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" dyDescent="0.2">
       <c r="A5">
         <v>-0.90308998699194354</v>
       </c>
@@ -635,13 +635,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6B459B-A3CC-4C35-9294-D6268779CDAF}">
   <dimension ref="A2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -649,7 +649,7 @@
         <v>-1.0390984110574499</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" dyDescent="0.2">
       <c r="A3">
         <v>-0.3010299956639812</v>
       </c>
@@ -657,7 +657,7 @@
         <v>-1.6475581388057823</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" dyDescent="0.2">
       <c r="A4">
         <v>-0.6020599913279624</v>
       </c>
@@ -665,7 +665,7 @@
         <v>-1.8894639858643836</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" dyDescent="0.2">
       <c r="A5">
         <v>-0.90308998699194354</v>
       </c>
